--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09A1337-3B02-4FE6-9CFA-881919E0601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CB379-AA76-41C1-934E-4ABD18DB1C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4644" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>Białołęka</t>
+  </si>
+  <si>
+    <t>ul. Modlińska 168</t>
+  </si>
+  <si>
+    <t>ul. Modlińska 115</t>
+  </si>
+  <si>
+    <t>NEW AGE FITNESS</t>
+  </si>
+  <si>
+    <t>ul. Antalla 5</t>
+  </si>
+  <si>
+    <t>ENERGY FITNESS CLUB</t>
   </si>
 </sst>
 </file>
@@ -168,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -209,8 +224,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -527,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,22 +881,52 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <v>52.23919575</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20.8920398123282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <v>52.31316545</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20.976529451634502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <v>52.314318299999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20.956706000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CB379-AA76-41C1-934E-4ABD18DB1C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13538D-DB57-4B3E-BA21-55EE2AFE50CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4644" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -175,6 +175,39 @@
   </si>
   <si>
     <t>ENERGY FITNESS CLUB</t>
+  </si>
+  <si>
+    <t>ul. Modlińska 256</t>
+  </si>
+  <si>
+    <t>Calypso Fitness</t>
+  </si>
+  <si>
+    <t>ul. Modlińska 310/312</t>
+  </si>
+  <si>
+    <t>Fort Fitness</t>
+  </si>
+  <si>
+    <t>ul. Światowida 58B</t>
+  </si>
+  <si>
+    <t>I LOVE FITNESS</t>
+  </si>
+  <si>
+    <t>ul. Światowida 17</t>
+  </si>
+  <si>
+    <t>ul. Kazimierza Pułaskiego 10</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>ul. Marywilska 44</t>
+  </si>
+  <si>
+    <t>FORDAY FITNESS For Life</t>
   </si>
 </sst>
 </file>
@@ -540,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,33 +965,1323 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3">
+        <v>52.339089950000002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20.957991877367999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
+      <c r="B24" s="3">
+        <v>52.344292699999997</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20.952234099999998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
+      <c r="B25" s="3">
+        <v>52.331822449999997</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20.942199766300199</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
+      <c r="B26" s="3">
+        <v>52.317428399999997</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20.966839421804799</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
+      <c r="B27" s="3">
+        <v>52.321825599999997</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.979572699999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
+      <c r="B28" s="3">
+        <v>52.319887999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>21.0094736</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13538D-DB57-4B3E-BA21-55EE2AFE50CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BA5E6-6879-4DFF-8CE9-46A736330085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
+    <workbookView xWindow="13620" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -208,6 +208,243 @@
   </si>
   <si>
     <t>FORDAY FITNESS For Life</t>
+  </si>
+  <si>
+    <t>Mokotów</t>
+  </si>
+  <si>
+    <t>GO FITNESS</t>
+  </si>
+  <si>
+    <t>Aleja Wilanowska 91</t>
+  </si>
+  <si>
+    <t>Bukowińska 22</t>
+  </si>
+  <si>
+    <t>Konstruktorska 13</t>
+  </si>
+  <si>
+    <t>Wołoska 16</t>
+  </si>
+  <si>
+    <t>McFit</t>
+  </si>
+  <si>
+    <t>Wincentego Rzymowskiego 53</t>
+  </si>
+  <si>
+    <t>Orangetheory Fitness</t>
+  </si>
+  <si>
+    <t>Jarosława Dąbrowskiego 81</t>
+  </si>
+  <si>
+    <t>Puławska 39</t>
+  </si>
+  <si>
+    <t>Bobrowiecka 8</t>
+  </si>
+  <si>
+    <t>Sułkowicka 2/4</t>
+  </si>
+  <si>
+    <t>ENERGY FITNESS CLUB PALACE</t>
+  </si>
+  <si>
+    <t>Ochota</t>
+  </si>
+  <si>
+    <t>al. Jerozolimskie 123a</t>
+  </si>
+  <si>
+    <t>al. Jerozolimskie 100</t>
+  </si>
+  <si>
+    <t>al. Jerozolimskie 148</t>
+  </si>
+  <si>
+    <t>CityFit</t>
+  </si>
+  <si>
+    <t>Grójecka 208</t>
+  </si>
+  <si>
+    <t>Pruszkowska 29</t>
+  </si>
+  <si>
+    <t>Multifitness</t>
+  </si>
+  <si>
+    <t>Karola Bohdanowicza 21/2</t>
+  </si>
+  <si>
+    <t>LadiesGym</t>
+  </si>
+  <si>
+    <t>Białobrzeska 32</t>
+  </si>
+  <si>
+    <t>Kinetic Medical&amp;Fitness</t>
+  </si>
+  <si>
+    <t>al. Jerozolimskie 181B</t>
+  </si>
+  <si>
+    <t>Mariana Nowickiego 2</t>
+  </si>
+  <si>
+    <t>Siłownia plenerowa</t>
+  </si>
+  <si>
+    <t>Praga-Południe</t>
+  </si>
+  <si>
+    <t>Terespolska 4</t>
+  </si>
+  <si>
+    <t>Saska 105</t>
+  </si>
+  <si>
+    <t>Grochowska 207</t>
+  </si>
+  <si>
+    <t>Aleja Stanów Zjednoczonych 26A</t>
+  </si>
+  <si>
+    <t>Olimpia Fitness Club</t>
+  </si>
+  <si>
+    <t>Ostrobramska 101</t>
+  </si>
+  <si>
+    <t>Zamieniecka 80</t>
+  </si>
+  <si>
+    <t>Core Fitness</t>
+  </si>
+  <si>
+    <t>gen. Augusta Emila Fieldorfa „Nila” 11</t>
+  </si>
+  <si>
+    <t>Ostrobramska 79</t>
+  </si>
+  <si>
+    <t>Grochowska 170A</t>
+  </si>
+  <si>
+    <t>Praga-Północ</t>
+  </si>
+  <si>
+    <t>Targowa 33A</t>
+  </si>
+  <si>
+    <t>Świdnicka 6A</t>
+  </si>
+  <si>
+    <t>Fitness Factory</t>
+  </si>
+  <si>
+    <t>Jagiellońska 7</t>
+  </si>
+  <si>
+    <t>Figura</t>
+  </si>
+  <si>
+    <t>Plac Konesera 5</t>
+  </si>
+  <si>
+    <t>Tarchomińska 13</t>
+  </si>
+  <si>
+    <t>Caliproject Gym</t>
+  </si>
+  <si>
+    <t>Kowelska 10</t>
+  </si>
+  <si>
+    <t>ProFitness</t>
+  </si>
+  <si>
+    <t>Kawęczyńska 36</t>
+  </si>
+  <si>
+    <t>Papaj Gym</t>
+  </si>
+  <si>
+    <t>Wybrzeże Szczecińskie 31</t>
+  </si>
+  <si>
+    <t>Aleja Zieleniecka 2</t>
+  </si>
+  <si>
+    <t>Rembertów</t>
+  </si>
+  <si>
+    <t>Prymasa Stefana Wyszyńskiego 21</t>
+  </si>
+  <si>
+    <t>CHAMPFIT</t>
+  </si>
+  <si>
+    <t>Czwartaków 26</t>
+  </si>
+  <si>
+    <t>Kadrowa 17</t>
+  </si>
+  <si>
+    <t>ArtDance &amp; ArtFit</t>
+  </si>
+  <si>
+    <t>BodyFan</t>
+  </si>
+  <si>
+    <t>Szwoleżerów 128</t>
+  </si>
+  <si>
+    <t>Kordiana 1</t>
+  </si>
+  <si>
+    <t>Śródmieście</t>
+  </si>
+  <si>
+    <t>al. Jana Pawła II 82</t>
+  </si>
+  <si>
+    <t>Bielańska 4A</t>
+  </si>
+  <si>
+    <t>Energy Fitness Club</t>
+  </si>
+  <si>
+    <t>Świętokrzyska 3</t>
+  </si>
+  <si>
+    <t>Rondo ONZ 1</t>
+  </si>
+  <si>
+    <t>Piękna 15</t>
+  </si>
+  <si>
+    <t>Quantum Fitness</t>
+  </si>
+  <si>
+    <t>Nowogrodzka 50/54</t>
+  </si>
+  <si>
+    <t>Gym Corner</t>
+  </si>
+  <si>
+    <t>Polna 11</t>
+  </si>
+  <si>
+    <t>Nowowiejska 37B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ośrodek Sportu i Rekreacji </t>
+  </si>
+  <si>
+    <t>Park Mirowski</t>
   </si>
 </sst>
 </file>
@@ -575,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,210 +1301,860 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>52.172990349999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>21.0515000711165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>52.1811097</v>
+      </c>
+      <c r="C30" s="3">
+        <v>21.0273051</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3">
+        <v>52.184851399999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20.988960546990999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3">
+        <v>52.181460999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21.003306899999998</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3">
+        <v>52.177008600000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>21.0012919810905</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="3">
+        <v>52.199124500000003</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21.004039200000001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3">
+        <v>52.207468900000002</v>
+      </c>
+      <c r="C35" s="3">
+        <v>21.0224194</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="3">
+        <v>52.198627600000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>21.047436542743199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3">
+        <v>52.205599100000001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>21.032750302772001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3">
+        <v>52.224944600000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20.991501100000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3">
+        <v>52.221856099999997</v>
+      </c>
+      <c r="C39" s="3">
+        <v>20.9762907</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="3">
+        <v>52.213011299999998</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20.951437969073499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="3">
+        <v>52.19961945</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20.9656659138222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3">
+        <v>52.202101999999996</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20.974917952424398</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3">
+        <v>52.198687749999998</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20.975187009153899</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="3">
+        <v>52.214895349999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20.975147679003001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3">
+        <v>52.210345500000003</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20.952744326694098</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="3">
+        <v>52.203246100000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20.9835621</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="3">
+        <v>52.250026200000001</v>
+      </c>
+      <c r="C47" s="3">
+        <v>21.070889399999999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="3">
+        <v>52.237303400000002</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21.056749400000001</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="3">
+        <v>52.244403300000002</v>
+      </c>
+      <c r="C49" s="3">
+        <v>21.0865741</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3">
+        <v>52.229640949999997</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21.06881375</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="3">
+        <v>52.235482449999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>21.0844061928718</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="3">
+        <v>52.240700399999902</v>
+      </c>
+      <c r="C52" s="3">
+        <v>21.102091448230301</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52.224282500000001</v>
+      </c>
+      <c r="C53" s="3">
+        <v>21.0914605</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="3">
+        <v>52.233689249999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>21.1026680035956</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="3">
+        <v>52.244696099999999</v>
+      </c>
+      <c r="C55" s="3">
+        <v>21.092812299999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="3">
+        <v>52.250038000000004</v>
+      </c>
+      <c r="C56" s="3">
+        <v>21.040000902164198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="3">
+        <v>52.267734099999998</v>
+      </c>
+      <c r="C57" s="3">
+        <v>21.042903208021801</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="3">
+        <v>52.250233799999997</v>
+      </c>
+      <c r="C58" s="3">
+        <v>21.035551300000002</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="3">
+        <v>52.255439600000003</v>
+      </c>
+      <c r="C59" s="3">
+        <v>21.0443991551669</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="3">
+        <v>52.256620749999897</v>
+      </c>
+      <c r="C60" s="3">
+        <v>21.046937500809801</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="3">
+        <v>52.262587549999999</v>
+      </c>
+      <c r="C61" s="3">
+        <v>21.040374017283501</v>
+      </c>
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="3">
+        <v>52.2571443</v>
+      </c>
+      <c r="C62" s="3">
+        <v>21.057929645496198</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="3">
+        <v>52.247056796571897</v>
+      </c>
+      <c r="C63" s="3">
+        <v>21.032149374312699</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="3">
+        <v>52.23985605</v>
+      </c>
+      <c r="C64" s="3">
+        <v>21.055648455492801</v>
+      </c>
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="3">
+        <v>52.301616299999999</v>
+      </c>
+      <c r="C65" s="3">
+        <v>21.157053757495198</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="3">
+        <v>52.269717350000001</v>
+      </c>
+      <c r="C66" s="3">
+        <v>21.148803891049798</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="3">
+        <v>52.266221450000003</v>
+      </c>
+      <c r="C67" s="3">
+        <v>21.166725670821101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="3">
+        <v>52.285126099999999</v>
+      </c>
+      <c r="C68" s="3">
+        <v>21.1343858</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="3">
+        <v>52.259318100000002</v>
+      </c>
+      <c r="C69" s="3">
+        <v>21.152952898304399</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="3">
+        <v>52.25723</v>
+      </c>
+      <c r="C70" s="3">
+        <v>20.984573513195699</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="3">
+        <v>52.244354250000001</v>
+      </c>
+      <c r="C71" s="3">
+        <v>21.007300824727</v>
+      </c>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="3">
+        <v>52.236918099999997</v>
+      </c>
+      <c r="C72" s="3">
+        <v>21.018604</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="3">
+        <v>52.232878999999997</v>
+      </c>
+      <c r="C73" s="3">
+        <v>20.999556660269398</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="3">
+        <v>52.223234599999998</v>
+      </c>
+      <c r="C74" s="3">
+        <v>21.018644305125498</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="3">
+        <v>52.227933299999997</v>
+      </c>
+      <c r="C75" s="3">
+        <v>21.007459743361</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="3">
+        <v>52.2181687</v>
+      </c>
+      <c r="C76" s="3">
+        <v>21.014286200000001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="3">
+        <v>52.219493999999997</v>
+      </c>
+      <c r="C77" s="3">
+        <v>21.001636399999999</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="3">
+        <v>52.238290749999997</v>
+      </c>
+      <c r="C78" s="3">
+        <v>20.9997979956925</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BA5E6-6879-4DFF-8CE9-46A736330085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B68A0-E5BD-4DF5-B57C-858B8E0D4768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
+    <workbookView xWindow="5760" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B68A0-E5BD-4DF5-B57C-858B8E0D4768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF4E914-7E70-4263-A55B-48EE838B67A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Bielany</t>
-  </si>
-  <si>
-    <t> 20,9562905</t>
   </si>
   <si>
     <t>Fitness Club S4</t>
@@ -812,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,10 +849,10 @@
         <v>20.9305406</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,14 +862,14 @@
       <c r="B3" s="3">
         <v>52.2840639</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
+      <c r="C3" s="4">
+        <v>20.956290500000001</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,10 +883,10 @@
         <v>20.936305699999998</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,10 +900,10 @@
         <v>20.938018100000001</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,10 +917,10 @@
         <v>20.9303168</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,10 +934,10 @@
         <v>20.961600656334099</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,10 +951,10 @@
         <v>20.944887699999999</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,10 +968,10 @@
         <v>20.949475905856399</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,15 +985,15 @@
         <v>20.927451699999999</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>52.258484000000003</v>
@@ -1005,15 +1002,15 @@
         <v>20.925486916538699</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>52.252138000000002</v>
@@ -1022,15 +1019,15 @@
         <v>20.912492282400301</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>52.245662799999998</v>
@@ -1039,15 +1036,15 @@
         <v>20.906031546049501</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>52.236909850000004</v>
@@ -1056,15 +1053,15 @@
         <v>20.911988992677099</v>
       </c>
       <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>52.239652999999997</v>
@@ -1073,15 +1070,15 @@
         <v>20.901133399999999</v>
       </c>
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>52.2416196</v>
@@ -1090,15 +1087,15 @@
         <v>20.9076805458125</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>52.237846594772797</v>
@@ -1107,15 +1104,15 @@
         <v>20.9147334425456</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>52.259035900000001</v>
@@ -1124,15 +1121,15 @@
         <v>20.931894520127798</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>52.23919575</v>
@@ -1141,15 +1138,15 @@
         <v>20.8920398123282</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
         <v>52.23919575</v>
@@ -1158,15 +1155,15 @@
         <v>20.8920398123282</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>52.31316545</v>
@@ -1175,15 +1172,15 @@
         <v>20.976529451634502</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
         <v>52.314318299999996</v>
@@ -1192,15 +1189,15 @@
         <v>20.956706000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>52.339089950000002</v>
@@ -1209,15 +1206,15 @@
         <v>20.957991877367999</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
         <v>52.344292699999997</v>
@@ -1226,15 +1223,15 @@
         <v>20.952234099999998</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>52.331822449999997</v>
@@ -1243,15 +1240,15 @@
         <v>20.942199766300199</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>52.317428399999997</v>
@@ -1260,15 +1257,15 @@
         <v>20.966839421804799</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
         <v>52.321825599999997</v>
@@ -1277,15 +1274,15 @@
         <v>20.979572699999999</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>52.319887999999999</v>
@@ -1294,15 +1291,15 @@
         <v>21.0094736</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>52.172990349999999</v>
@@ -1311,15 +1308,15 @@
         <v>21.0515000711165</v>
       </c>
       <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
         <v>52.1811097</v>
@@ -1328,15 +1325,15 @@
         <v>21.0273051</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3">
         <v>52.184851399999999</v>
@@ -1345,15 +1342,15 @@
         <v>20.988960546990999</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>52.181460999999999</v>
@@ -1362,15 +1359,15 @@
         <v>21.003306899999998</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3">
         <v>52.177008600000001</v>
@@ -1379,15 +1376,15 @@
         <v>21.0012919810905</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3">
         <v>52.199124500000003</v>
@@ -1396,15 +1393,15 @@
         <v>21.004039200000001</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3">
         <v>52.207468900000002</v>
@@ -1413,15 +1410,15 @@
         <v>21.0224194</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3">
         <v>52.198627600000002</v>
@@ -1430,15 +1427,15 @@
         <v>21.047436542743199</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3">
         <v>52.205599100000001</v>
@@ -1447,15 +1444,15 @@
         <v>21.032750302772001</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3">
         <v>52.224944600000001</v>
@@ -1464,15 +1461,15 @@
         <v>20.991501100000001</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3">
         <v>52.221856099999997</v>
@@ -1481,15 +1478,15 @@
         <v>20.9762907</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3">
         <v>52.213011299999998</v>
@@ -1498,15 +1495,15 @@
         <v>20.951437969073499</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3">
         <v>52.19961945</v>
@@ -1515,15 +1512,15 @@
         <v>20.9656659138222</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3">
         <v>52.202101999999996</v>
@@ -1532,15 +1529,15 @@
         <v>20.974917952424398</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3">
         <v>52.198687749999998</v>
@@ -1549,15 +1546,15 @@
         <v>20.975187009153899</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>52.214895349999999</v>
@@ -1566,15 +1563,15 @@
         <v>20.975147679003001</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3">
         <v>52.210345500000003</v>
@@ -1583,15 +1580,15 @@
         <v>20.952744326694098</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3">
         <v>52.203246100000001</v>
@@ -1600,15 +1597,15 @@
         <v>20.9835621</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3">
         <v>52.250026200000001</v>
@@ -1617,15 +1614,15 @@
         <v>21.070889399999999</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3">
         <v>52.237303400000002</v>
@@ -1634,15 +1631,15 @@
         <v>21.056749400000001</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="3">
         <v>52.244403300000002</v>
@@ -1651,15 +1648,15 @@
         <v>21.0865741</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3">
         <v>52.229640949999997</v>
@@ -1668,15 +1665,15 @@
         <v>21.06881375</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="3">
         <v>52.235482449999999</v>
@@ -1685,15 +1682,15 @@
         <v>21.0844061928718</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="3">
         <v>52.240700399999902</v>
@@ -1702,15 +1699,15 @@
         <v>21.102091448230301</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="3">
         <v>52.224282500000001</v>
@@ -1719,15 +1716,15 @@
         <v>21.0914605</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="3">
         <v>52.233689249999998</v>
@@ -1736,15 +1733,15 @@
         <v>21.1026680035956</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3">
         <v>52.244696099999999</v>
@@ -1753,15 +1750,15 @@
         <v>21.092812299999999</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="3">
         <v>52.250038000000004</v>
@@ -1770,15 +1767,15 @@
         <v>21.040000902164198</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="3">
         <v>52.267734099999998</v>
@@ -1787,15 +1784,15 @@
         <v>21.042903208021801</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="3">
         <v>52.250233799999997</v>
@@ -1804,15 +1801,15 @@
         <v>21.035551300000002</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3">
         <v>52.255439600000003</v>
@@ -1821,15 +1818,15 @@
         <v>21.0443991551669</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" s="3">
         <v>52.256620749999897</v>
@@ -1838,15 +1835,15 @@
         <v>21.046937500809801</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3">
         <v>52.262587549999999</v>
@@ -1855,15 +1852,15 @@
         <v>21.040374017283501</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3">
         <v>52.2571443</v>
@@ -1872,15 +1869,15 @@
         <v>21.057929645496198</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3">
         <v>52.247056796571897</v>
@@ -1889,15 +1886,15 @@
         <v>21.032149374312699</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="3">
         <v>52.23985605</v>
@@ -1906,15 +1903,15 @@
         <v>21.055648455492801</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="3">
         <v>52.301616299999999</v>
@@ -1923,15 +1920,15 @@
         <v>21.157053757495198</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="3">
         <v>52.269717350000001</v>
@@ -1940,15 +1937,15 @@
         <v>21.148803891049798</v>
       </c>
       <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
         <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="3">
         <v>52.266221450000003</v>
@@ -1957,15 +1954,15 @@
         <v>21.166725670821101</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="3">
         <v>52.285126099999999</v>
@@ -1974,15 +1971,15 @@
         <v>21.1343858</v>
       </c>
       <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
         <v>120</v>
-      </c>
-      <c r="E68" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="3">
         <v>52.259318100000002</v>
@@ -1991,15 +1988,15 @@
         <v>21.152952898304399</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="3">
         <v>52.25723</v>
@@ -2008,15 +2005,15 @@
         <v>20.984573513195699</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" s="3">
         <v>52.244354250000001</v>
@@ -2025,15 +2022,15 @@
         <v>21.007300824727</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="3">
         <v>52.236918099999997</v>
@@ -2042,15 +2039,15 @@
         <v>21.018604</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="3">
         <v>52.232878999999997</v>
@@ -2059,15 +2056,15 @@
         <v>20.999556660269398</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="3">
         <v>52.223234599999998</v>
@@ -2076,15 +2073,15 @@
         <v>21.018644305125498</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>52.227933299999997</v>
@@ -2093,15 +2090,15 @@
         <v>21.007459743361</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="3">
         <v>52.2181687</v>
@@ -2110,15 +2107,15 @@
         <v>21.014286200000001</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="3">
         <v>52.219493999999997</v>
@@ -2127,15 +2124,15 @@
         <v>21.001636399999999</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3">
         <v>52.238290749999997</v>
@@ -2144,10 +2141,10 @@
         <v>20.9997979956925</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF4E914-7E70-4263-A55B-48EE838B67A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4270FBE-4B81-46DA-A3EC-0DAB4893F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="168">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -442,6 +442,102 @@
   </si>
   <si>
     <t>Park Mirowski</t>
+  </si>
+  <si>
+    <t>Targówek</t>
+  </si>
+  <si>
+    <t>Ursus</t>
+  </si>
+  <si>
+    <t>Ursynów</t>
+  </si>
+  <si>
+    <t>Wawer</t>
+  </si>
+  <si>
+    <t>Wesoła</t>
+  </si>
+  <si>
+    <t>Wilanów</t>
+  </si>
+  <si>
+    <t>Włochy</t>
+  </si>
+  <si>
+    <t>Wola</t>
+  </si>
+  <si>
+    <t>Żoliborz</t>
+  </si>
+  <si>
+    <t>Głębocka 13</t>
+  </si>
+  <si>
+    <t>Gravitan</t>
+  </si>
+  <si>
+    <t>Malborska 39</t>
+  </si>
+  <si>
+    <t>Głębocka 15</t>
+  </si>
+  <si>
+    <t>Studio Treningu</t>
+  </si>
+  <si>
+    <t>Lewicpolska 19</t>
+  </si>
+  <si>
+    <t>Rembielińska 20</t>
+  </si>
+  <si>
+    <t>Radzymińska 129E</t>
+  </si>
+  <si>
+    <t>Dalanowska 46/3</t>
+  </si>
+  <si>
+    <t>Fit &amp; Fun</t>
+  </si>
+  <si>
+    <t>Piotra Wysockiego 51</t>
+  </si>
+  <si>
+    <t>CrossFit Dopamine</t>
+  </si>
+  <si>
+    <t>Świdnicka 10</t>
+  </si>
+  <si>
+    <t>al. Jerozolimskie 200</t>
+  </si>
+  <si>
+    <t>ZONE Fitness</t>
+  </si>
+  <si>
+    <t>Kazimierza Pużaka 1</t>
+  </si>
+  <si>
+    <t>Stanisława Wojciechowskiego 37/48</t>
+  </si>
+  <si>
+    <t>ul, Kazimierza Gierdziejewskiego 7</t>
+  </si>
+  <si>
+    <t>Oxygen Fitness &amp; Wellness Club</t>
+  </si>
+  <si>
+    <t>Strefa Formy</t>
+  </si>
+  <si>
+    <t>Pola Karolińskie 4</t>
+  </si>
+  <si>
+    <t>Generała Kazimierza Sosnkowskiego 3</t>
+  </si>
+  <si>
+    <t>gen. Felicjana Sławoja Składkowskiego 4</t>
   </si>
 </sst>
 </file>
@@ -809,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,330 +2244,730 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="3">
+        <v>52.300189449999998</v>
+      </c>
+      <c r="C79" s="3">
+        <v>21.054774282532598</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="3">
+        <v>52.305233000000001</v>
+      </c>
+      <c r="C80" s="3">
+        <v>21.077501099999999</v>
+      </c>
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="3">
+        <v>52.3039117</v>
+      </c>
+      <c r="C81" s="3">
+        <v>21.057831162136399</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3">
+        <v>52.291826649999997</v>
+      </c>
+      <c r="C82" s="3">
+        <v>21.072739192429498</v>
+      </c>
+      <c r="D82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="3">
+        <v>52.289710049999996</v>
+      </c>
+      <c r="C83" s="3">
+        <v>21.030727316838099</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="3">
+        <v>52.271097699999999</v>
+      </c>
+      <c r="C84" s="3">
+        <v>21.061794299999999</v>
+      </c>
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="3">
+        <v>52.2771173</v>
+      </c>
+      <c r="C85" s="3">
+        <v>21.0487006</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="3">
+        <v>52.292223100000001</v>
+      </c>
+      <c r="C86" s="3">
+        <v>21.014990222862501</v>
+      </c>
+      <c r="D86" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="3">
+        <v>52.268297599999997</v>
+      </c>
+      <c r="C87" s="3">
+        <v>21.042776499999999</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="3">
+        <v>52.194336399999997</v>
+      </c>
+      <c r="C88" s="3">
+        <v>20.9243916</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="3">
+        <v>52.190799699999999</v>
+      </c>
+      <c r="C89" s="3">
+        <v>20.893076700000002</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="3">
+        <v>52.194498199999998</v>
+      </c>
+      <c r="C90" s="3">
+        <v>20.871638999999998</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="3">
+        <v>52.2030277</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20.8736116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="3">
+        <v>52.207673100000001</v>
+      </c>
+      <c r="C92" s="3">
+        <v>20.890709600000001</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="3">
+        <v>52.186780900000002</v>
+      </c>
+      <c r="C93" s="3">
+        <v>20.889457749999998</v>
+      </c>
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="3">
+        <v>52.187372000000003</v>
+      </c>
+      <c r="C94" s="3">
+        <v>20.8997703</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>137</v>
+      </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>138</v>
+      </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>138</v>
+      </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>138</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>138</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>139</v>
+      </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>140</v>
+      </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>141</v>
+      </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>143</v>
+      </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>143</v>
+      </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>144</v>
+      </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>144</v>
+      </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>144</v>
+      </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>144</v>
+      </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>144</v>
+      </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>144</v>
+      </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>144</v>
+      </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4270FBE-4B81-46DA-A3EC-0DAB4893F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFDA76C-48D7-4227-BF45-6D3907AD1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="258">
   <si>
     <t>Dzielnica</t>
   </si>
@@ -538,6 +538,276 @@
   </si>
   <si>
     <t>gen. Felicjana Sławoja Składkowskiego 4</t>
+  </si>
+  <si>
+    <t>Czerwona Droga 5</t>
+  </si>
+  <si>
+    <t>Studio BO.SO.</t>
+  </si>
+  <si>
+    <t>Skoroszewska 7</t>
+  </si>
+  <si>
+    <t>Koński Jar 6</t>
+  </si>
+  <si>
+    <t>Puszczyka 7</t>
+  </si>
+  <si>
+    <t>Olymp</t>
+  </si>
+  <si>
+    <t>Benedykta Dybowskiego 3/5</t>
+  </si>
+  <si>
+    <t>Puławska 423</t>
+  </si>
+  <si>
+    <t>pasaż Ursynowski 3/15</t>
+  </si>
+  <si>
+    <t>Arena Active Club</t>
+  </si>
+  <si>
+    <t>Rotmistrza Witolda Pileckiego 122</t>
+  </si>
+  <si>
+    <t>FIT-FIGHT CLUB</t>
+  </si>
+  <si>
+    <t>Stefana Szolc-Rogozińskiego 11</t>
+  </si>
+  <si>
+    <t>Fitness Klub Palestra</t>
+  </si>
+  <si>
+    <t>Rybałtów 20</t>
+  </si>
+  <si>
+    <t>Aleja Komisji Edukacji Narodowej 21</t>
+  </si>
+  <si>
+    <t>X-Gym</t>
+  </si>
+  <si>
+    <t>Bysławska 82</t>
+  </si>
+  <si>
+    <t>Aktywna Strefa</t>
+  </si>
+  <si>
+    <t>Patriotów 87</t>
+  </si>
+  <si>
+    <t>Kala Fitness</t>
+  </si>
+  <si>
+    <t>Patriotów 154</t>
+  </si>
+  <si>
+    <t>Wał Miedzeszyński 422</t>
+  </si>
+  <si>
+    <t>Fabryka Zdrowego Ciała</t>
+  </si>
+  <si>
+    <t>Konopna 16</t>
+  </si>
+  <si>
+    <t>STEP BY</t>
+  </si>
+  <si>
+    <t>Dzielnicowa 19</t>
+  </si>
+  <si>
+    <t>Gym&amp;Fitness</t>
+  </si>
+  <si>
+    <t>Lokalna 33</t>
+  </si>
+  <si>
+    <t>Jogalates Studio</t>
+  </si>
+  <si>
+    <t>Zwoleńska 81</t>
+  </si>
+  <si>
+    <t>plac Stefana Czarnieckiego 1, 05-070 Sulejówek</t>
+  </si>
+  <si>
+    <t>TERROR CRIB</t>
+  </si>
+  <si>
+    <t>Szklarniowa 12D</t>
+  </si>
+  <si>
+    <t>aleja Piłsudskiego 2</t>
+  </si>
+  <si>
+    <t>VictoryBody</t>
+  </si>
+  <si>
+    <t>Rumiankowa 76</t>
+  </si>
+  <si>
+    <t>Centrum Sztuk Walk</t>
+  </si>
+  <si>
+    <t>1 Praskiego Pułku 36</t>
+  </si>
+  <si>
+    <t>Leśna siłownia</t>
+  </si>
+  <si>
+    <t>Trakt Brzeski 7A</t>
+  </si>
+  <si>
+    <t>Better Way</t>
+  </si>
+  <si>
+    <t>Trakt Brzeski 57B</t>
+  </si>
+  <si>
+    <t>Stara Miłosna</t>
+  </si>
+  <si>
+    <t>Graniczna 2B</t>
+  </si>
+  <si>
+    <t>Mambo</t>
+  </si>
+  <si>
+    <t>Jana Pawła II 13</t>
+  </si>
+  <si>
+    <t>Nałęczowska 19</t>
+  </si>
+  <si>
+    <t>Aleja Rzeczypospolitej 14</t>
+  </si>
+  <si>
+    <t>Nowoursynowska 154A</t>
+  </si>
+  <si>
+    <t>Technobody</t>
+  </si>
+  <si>
+    <t>Stanisława Lentza 10</t>
+  </si>
+  <si>
+    <t>Aleja Rzeczypospolitej 1</t>
+  </si>
+  <si>
+    <t>Przyczółkowa 219a</t>
+  </si>
+  <si>
+    <t>Gym Princess Studio</t>
+  </si>
+  <si>
+    <t>Aleksandra Gieysztora 2/13</t>
+  </si>
+  <si>
+    <t>Europejska 29</t>
+  </si>
+  <si>
+    <t>Krakowiaków 46/5</t>
+  </si>
+  <si>
+    <t>Palestra</t>
+  </si>
+  <si>
+    <t>Łopuszańska 38B</t>
+  </si>
+  <si>
+    <t>Żwirki i Wigury 16</t>
+  </si>
+  <si>
+    <t>Training Zone</t>
+  </si>
+  <si>
+    <t>17 Stycznia 45D</t>
+  </si>
+  <si>
+    <t>oh! My gym</t>
+  </si>
+  <si>
+    <t>Rakowska 3</t>
+  </si>
+  <si>
+    <t>Gładka 18</t>
+  </si>
+  <si>
+    <t>MED.</t>
+  </si>
+  <si>
+    <t>Ryżowa 44/311</t>
+  </si>
+  <si>
+    <t>Marcina Kasprzaka 24A</t>
+  </si>
+  <si>
+    <t>Młynarska 8/12</t>
+  </si>
+  <si>
+    <t>Żytnia 15</t>
+  </si>
+  <si>
+    <t>Jana Kazimierza 3</t>
+  </si>
+  <si>
+    <t>Wolska 71/73</t>
+  </si>
+  <si>
+    <t>Okopowa 58/72</t>
+  </si>
+  <si>
+    <t>ECLIPTICO</t>
+  </si>
+  <si>
+    <t>Kolejowa 47A/10</t>
+  </si>
+  <si>
+    <t>Górczewska 124</t>
+  </si>
+  <si>
+    <t>Wolska 88</t>
+  </si>
+  <si>
+    <t>Wybrzeże Gdyńskie 4</t>
+  </si>
+  <si>
+    <t>Szamocka 10c</t>
+  </si>
+  <si>
+    <t>FitElite</t>
+  </si>
+  <si>
+    <t>Ludwika Rydygiera 13B</t>
+  </si>
+  <si>
+    <t>PR1ME</t>
+  </si>
+  <si>
+    <t>Bitwy pod Rokitną 1</t>
+  </si>
+  <si>
+    <t>Kaliny Jędrusik 7/3</t>
+  </si>
+  <si>
+    <t>Fitness Club Grota</t>
+  </si>
+  <si>
+    <t>Władysława Broniewskiego 7</t>
+  </si>
+  <si>
+    <t>Studio Harder</t>
+  </si>
+  <si>
+    <t>Broniewskiego 28</t>
+  </si>
+  <si>
+    <t>Przasnyska 1</t>
   </si>
 </sst>
 </file>
@@ -905,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,455 +2789,1095 @@
       <c r="A95" t="s">
         <v>137</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="B95" s="3">
+        <v>52.2008498</v>
+      </c>
+      <c r="C95" s="3">
+        <v>20.8709317577486</v>
+      </c>
+      <c r="D95" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="3">
+        <v>52.187416450000001</v>
+      </c>
+      <c r="C96" s="3">
+        <v>20.8975864072349</v>
+      </c>
+      <c r="D96" t="s">
+        <v>169</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>138</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="3">
+        <v>52.163748099999999</v>
+      </c>
+      <c r="C97" s="3">
+        <v>21.025956600000001</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="3">
+        <v>52.15836925</v>
+      </c>
+      <c r="C98" s="3">
+        <v>21.021908918938699</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>138</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>52.15002965</v>
+      </c>
+      <c r="C99" s="3">
+        <v>21.035472213523299</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>138</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="3">
+        <v>52.188375299999997</v>
+      </c>
+      <c r="C100" s="3">
+        <v>21.024453300000001</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="3">
+        <v>52.154282699999897</v>
+      </c>
+      <c r="C101" s="3">
+        <v>21.035067815793099</v>
+      </c>
+      <c r="D101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>138</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="3">
+        <v>52.143122599999998</v>
+      </c>
+      <c r="C102" s="3">
+        <v>21.0393826944421</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="3">
+        <v>52.151012549999997</v>
+      </c>
+      <c r="C103" s="3">
+        <v>21.050854186088699</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="3">
+        <v>52.130640700000001</v>
+      </c>
+      <c r="C104" s="3">
+        <v>21.056306975167001</v>
+      </c>
+      <c r="D104" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>138</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="3">
+        <v>52.134461000000002</v>
+      </c>
+      <c r="C105" s="3">
+        <v>21.061053300000001</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="3">
+        <v>52.158366200000003</v>
+      </c>
+      <c r="C106" s="3">
+        <v>21.197995599999999</v>
+      </c>
+      <c r="D106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>139</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="3">
+        <v>52.1645009</v>
+      </c>
+      <c r="C107" s="3">
+        <v>21.207276175432501</v>
+      </c>
+      <c r="D107" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="3">
+        <v>52.1825926</v>
+      </c>
+      <c r="C108" s="3">
+        <v>21.1917743499999</v>
+      </c>
+      <c r="D108" t="s">
+        <v>188</v>
+      </c>
+      <c r="E108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="3">
+        <v>52.198389849999998</v>
+      </c>
+      <c r="C109" s="3">
+        <v>21.119761633596699</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="3">
+        <v>52.210434499999998</v>
+      </c>
+      <c r="C110" s="3">
+        <v>21.171963850000001</v>
+      </c>
+      <c r="D110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="3">
+        <v>52.2219841</v>
+      </c>
+      <c r="C111" s="3">
+        <v>21.140321798090898</v>
+      </c>
+      <c r="D111" t="s">
+        <v>193</v>
+      </c>
+      <c r="E111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="3">
+        <v>52.168446849999903</v>
+      </c>
+      <c r="C112" s="3">
+        <v>21.211754341710702</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>139</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="3">
+        <v>52.2026003</v>
+      </c>
+      <c r="C113" s="3">
+        <v>21.1527371</v>
+      </c>
+      <c r="D113" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>140</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="3">
+        <v>52.252701549999998</v>
+      </c>
+      <c r="C114" s="3">
+        <v>21.2801034080967</v>
+      </c>
+      <c r="D114" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="3">
+        <v>52.229411900000002</v>
+      </c>
+      <c r="C115" s="3">
+        <v>21.243277899999999</v>
+      </c>
+      <c r="D115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="3">
+        <v>52.242354200000001</v>
+      </c>
+      <c r="C116" s="3">
+        <v>21.2215858</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="3">
+        <v>52.216576449999998</v>
+      </c>
+      <c r="C117" s="3">
+        <v>21.249935049999898</v>
+      </c>
+      <c r="D117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>140</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="3">
+        <v>52.246004749999997</v>
+      </c>
+      <c r="C118" s="3">
+        <v>21.222785949999999</v>
+      </c>
+      <c r="D118" t="s">
+        <v>205</v>
+      </c>
+      <c r="E118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="3">
+        <v>52.2244794</v>
+      </c>
+      <c r="C119" s="3">
+        <v>21.219063299999998</v>
+      </c>
+      <c r="D119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="3">
+        <v>52.223585999999997</v>
+      </c>
+      <c r="C120" s="3">
+        <v>21.2325911</v>
+      </c>
+      <c r="D120" t="s">
+        <v>209</v>
+      </c>
+      <c r="E120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="3">
+        <v>52.217304550000001</v>
+      </c>
+      <c r="C121" s="3">
+        <v>21.220667871135699</v>
+      </c>
+      <c r="D121" t="s">
+        <v>211</v>
+      </c>
+      <c r="E121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="3">
+        <v>52.218162100000001</v>
+      </c>
+      <c r="C122" s="3">
+        <v>21.222935499999998</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="3">
+        <v>52.177427949999903</v>
+      </c>
+      <c r="C123" s="3">
+        <v>21.0683444758272</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>141</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="3">
+        <v>52.172990349999999</v>
+      </c>
+      <c r="C124" s="3">
+        <v>21.0515000711165</v>
+      </c>
+      <c r="D124" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="3">
+        <v>52.164354065065503</v>
+      </c>
+      <c r="C125" s="3">
+        <v>21.071146076763299</v>
+      </c>
+      <c r="D125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>141</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="3">
+        <v>52.15413195</v>
+      </c>
+      <c r="C126" s="3">
+        <v>21.056945702102102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="3">
+        <v>52.172662349999896</v>
+      </c>
+      <c r="C127" s="3">
+        <v>21.074685644593899</v>
+      </c>
+      <c r="D127" t="s">
+        <v>218</v>
+      </c>
+      <c r="E127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="3">
+        <v>52.154047800000001</v>
+      </c>
+      <c r="C128" s="3">
+        <v>21.081592883566699</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="3">
+        <v>52.147919799999997</v>
+      </c>
+      <c r="C129" s="3">
+        <v>21.091176121827999</v>
+      </c>
+      <c r="D129" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>141</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="3">
+        <v>52.16125615</v>
+      </c>
+      <c r="C130" s="3">
+        <v>21.082077726351301</v>
+      </c>
+      <c r="D130" t="s">
+        <v>222</v>
+      </c>
+      <c r="E130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="3">
+        <v>52.159055100000003</v>
+      </c>
+      <c r="C131" s="3">
+        <v>21.0960680978339</v>
+      </c>
+      <c r="D131" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="3">
+        <v>52.189482150000003</v>
+      </c>
+      <c r="C132" s="3">
+        <v>20.946793864554898</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="3">
+        <v>52.194144100000003</v>
+      </c>
+      <c r="C133" s="3">
+        <v>20.939747000000001</v>
+      </c>
+      <c r="D133" t="s">
+        <v>226</v>
+      </c>
+      <c r="E133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="3">
+        <v>52.189435150000001</v>
+      </c>
+      <c r="C134" s="3">
+        <v>20.9818271601163</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="3">
+        <v>52.181703200000001</v>
+      </c>
+      <c r="C135" s="3">
+        <v>20.966087677959699</v>
+      </c>
+      <c r="D135" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="3">
+        <v>52.197902299999903</v>
+      </c>
+      <c r="C136" s="3">
+        <v>20.9536186317061</v>
+      </c>
+      <c r="D136" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="3">
+        <v>52.203558661158098</v>
+      </c>
+      <c r="C137" s="3">
+        <v>20.983673816888999</v>
+      </c>
+      <c r="D137" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="3">
+        <v>52.1879536</v>
+      </c>
+      <c r="C138" s="3">
+        <v>20.960934200000001</v>
+      </c>
+      <c r="D138" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="3">
+        <v>52.194336399999997</v>
+      </c>
+      <c r="C139" s="3">
+        <v>20.9243916</v>
+      </c>
+      <c r="D139" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="3">
+        <v>52.191011199999998</v>
+      </c>
+      <c r="C140" s="3">
+        <v>20.906789100000001</v>
+      </c>
+      <c r="D140" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="3">
+        <v>52.229190549999998</v>
+      </c>
+      <c r="C141" s="3">
+        <v>20.967955293348801</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="3">
+        <v>52.235707849999997</v>
+      </c>
+      <c r="C142" s="3">
+        <v>20.973324156943502</v>
+      </c>
+      <c r="D142" t="s">
+        <v>75</v>
+      </c>
+      <c r="E142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="3">
+        <v>52.239735899999999</v>
+      </c>
+      <c r="C143" s="3">
+        <v>20.980808199999998</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="3">
+        <v>52.226232299999999</v>
+      </c>
+      <c r="C144" s="3">
+        <v>20.951095800000001</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="3">
+        <v>52.232602200000002</v>
+      </c>
+      <c r="C145" s="3">
+        <v>20.9636131</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="3">
+        <v>52.246749649999998</v>
+      </c>
+      <c r="C146" s="3">
+        <v>20.979717284453301</v>
+      </c>
+      <c r="D146" t="s">
+        <v>65</v>
+      </c>
+      <c r="E146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="3">
+        <v>52.226986400000001</v>
+      </c>
+      <c r="C147" s="3">
+        <v>20.983064285616798</v>
+      </c>
+      <c r="D147" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="3">
+        <v>52.242148749999998</v>
+      </c>
+      <c r="C148" s="3">
+        <v>20.930465114614101</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="3">
+        <v>52.2327978</v>
+      </c>
+      <c r="C149" s="3">
+        <v>20.958371872997901</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>144</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="3">
+        <v>52.274123699999997</v>
+      </c>
+      <c r="C150" s="3">
+        <v>20.997096479103099</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>144</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="3">
+        <v>52.257067649999897</v>
+      </c>
+      <c r="C151" s="3">
+        <v>20.957267725387101</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="3">
+        <v>52.258404900000002</v>
+      </c>
+      <c r="C152" s="3">
+        <v>20.9764936242908</v>
+      </c>
+      <c r="D152" t="s">
+        <v>248</v>
+      </c>
+      <c r="E152" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="3">
+        <v>52.2617823</v>
+      </c>
+      <c r="C153" s="3">
+        <v>20.985846208884201</v>
+      </c>
+      <c r="D153" t="s">
+        <v>250</v>
+      </c>
+      <c r="E153" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="3">
+        <v>52.2570308957403</v>
+      </c>
+      <c r="C154" s="3">
+        <v>20.965157607643601</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>144</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="3">
+        <v>52.264397700000004</v>
+      </c>
+      <c r="C155" s="3">
+        <v>20.9700471340891</v>
+      </c>
+      <c r="D155" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>144</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="3">
+        <v>52.25723</v>
+      </c>
+      <c r="C156" s="3">
+        <v>20.984573513195699</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>144</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="3">
+        <v>52.267349600000003</v>
+      </c>
+      <c r="C157" s="3">
+        <v>20.9635441</v>
+      </c>
+      <c r="D157" t="s">
+        <v>255</v>
+      </c>
+      <c r="E157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="3">
+        <v>52.261546942699901</v>
+      </c>
+      <c r="C158" s="3">
+        <v>20.968283246656299</v>
+      </c>
+      <c r="D158" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>

--- a/silownie.xlsx
+++ b/silownie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicj\Desktop\infa\Aplikacja_sportowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFDA76C-48D7-4227-BF45-6D3907AD1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBEAEA-974B-4EE8-AEA8-C40CCFC543C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
+    <workbookView xWindow="0" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{5809AF24-50E4-4F12-9E5E-642987FEDD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D6B8C-F061-44BF-B6C5-3EA8A11587C8}">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,10 +1515,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="3">
-        <v>52.23919575</v>
+        <v>52.320444499999901</v>
       </c>
       <c r="C20" s="3">
-        <v>20.8920398123282</v>
+        <v>20.9732332551525</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
